--- a/reports/reference_class_distributions.xlsx
+++ b/reports/reference_class_distributions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC8FD09-C76D-4DB4-8BF7-223959ADDD31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF7B419-287F-4E92-90B8-347B5DE9D29C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{46417FCB-DCAD-440E-8B19-DC46081EA575}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Class</t>
   </si>
@@ -81,13 +81,22 @@
   </si>
   <si>
     <t>reference_dataset</t>
+  </si>
+  <si>
+    <t>semiauto_dataset</t>
+  </si>
+  <si>
+    <t>aprox ...</t>
+  </si>
+  <si>
+    <t>vezes o dataset de referência</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +108,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,14 +202,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -204,6 +217,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,173 +540,331 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3F0369-F215-45C1-815F-CC10E7E54FCC}">
-  <dimension ref="A3:F16"/>
+  <dimension ref="A3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="9">
         <f>1431+363</f>
         <v>1794</v>
       </c>
-      <c r="F5">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="9">
+        <f>367493+28752</f>
+        <v>396245</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="12">
+        <f t="shared" ref="I5:I6" si="0">G5/C5</f>
+        <v>220.87235228539578</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="10">
         <f>585+199</f>
         <v>784</v>
       </c>
-      <c r="F6">
-        <f>215+348</f>
-        <v>563</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
-      <c r="B7" s="7" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="10">
+        <f>51061+10056</f>
+        <v>61117</v>
+      </c>
+      <c r="I6" s="12">
+        <f t="shared" si="0"/>
+        <v>77.955357142857139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <f>C6+C5</f>
         <v>2578</v>
       </c>
-      <c r="F7">
-        <f>F6+F5</f>
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10">
+        <f>G6+G5</f>
+        <v>457362</v>
+      </c>
+      <c r="I7" s="13">
+        <f>G7/C7</f>
+        <v>177.40961986035686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="9">
         <f>874+146</f>
         <v>1020</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
-      <c r="B9" s="4" t="s">
+      <c r="E8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="9">
+        <f>122375+8203</f>
+        <v>130578</v>
+      </c>
+      <c r="I8" s="12">
+        <f t="shared" ref="I8:I16" si="1">G8/C8</f>
+        <v>128.01764705882354</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <f>1004+165</f>
         <v>1169</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
-      <c r="B10" s="8" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="10">
+        <f>234642+30866</f>
+        <v>265508</v>
+      </c>
+      <c r="I9" s="12">
+        <f t="shared" si="1"/>
+        <v>227.1240376390077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="11">
         <f>C8+C9</f>
         <v>2189</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <f>G8+G9</f>
+        <v>396086</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="1"/>
+        <v>180.94380995888534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <f>382+98</f>
         <v>480</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="4" t="s">
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="10">
+        <f>4371+1268</f>
+        <v>5639</v>
+      </c>
+      <c r="I11" s="12">
+        <f t="shared" si="1"/>
+        <v>11.747916666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <f>905+204</f>
         <v>1109</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="4" t="s">
+      <c r="E12" s="7"/>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="10">
+        <f>34541+8235</f>
+        <v>42776</v>
+      </c>
+      <c r="I12" s="12">
+        <f t="shared" si="1"/>
+        <v>38.571686203787195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="10">
         <f>376+129</f>
         <v>505</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="4" t="s">
+      <c r="E13" s="7"/>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10">
+        <f>15550+5414</f>
+        <v>20964</v>
+      </c>
+      <c r="I13" s="12">
+        <f t="shared" si="1"/>
+        <v>41.512871287128711</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <f>647+124</f>
         <v>771</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
-      <c r="B15" s="4" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="10">
+        <f>12354+930</f>
+        <v>13284</v>
+      </c>
+      <c r="I14" s="12">
+        <f t="shared" si="1"/>
+        <v>17.229571984435797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <f>350+108</f>
         <v>458</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="8" t="s">
+      <c r="E15" s="7"/>
+      <c r="F15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="10">
+        <f>31662+3989</f>
+        <v>35651</v>
+      </c>
+      <c r="I15" s="12">
+        <f t="shared" si="1"/>
+        <v>77.840611353711793</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="11">
         <f>SUM(C11:C15)</f>
         <v>3323</v>
       </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="11">
+        <f>SUM(G11:G15)</f>
+        <v>118314</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="1"/>
+        <v>35.604574179957872</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="A11:A16"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E16"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
